--- a/data/financial_statements/soci/DHI.xlsx
+++ b/data/financial_statements/soci/DHI.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,3896 +593,3980 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>7257800000</v>
+      </c>
+      <c r="C2">
         <v>9639500000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>8788100000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>7999000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>7053400000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>8109299000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>7284600000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>6446900000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>5933400000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>6400399000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>5390000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>4500000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>4020700000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>5038900000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>4906300000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>4128700000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>3519000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>4505300000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>4435300000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>3794700000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>3332700000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>4159100000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>3776400000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>3251300000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>2904200000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>3741200000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>3231900000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>2767900000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>2416400000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>3172600000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>2950800000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>2398000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>2302600000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>2472300000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>2147000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1735000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1670600000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1859800000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1692800000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1431600000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.029</v>
+      </c>
+      <c r="C3">
         <v>0.1887</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.2064</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.2408</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.1888</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.267</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.3515</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.4326</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.4757</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.2702</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.09859999999999999</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.08989999999999999</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.1426</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.1184</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.1062</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.08799999999999999</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.0559</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.0832</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.1745</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.1671</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.1475</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.1117</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.1685</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.1746</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.2019</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.1792</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.0953</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.1543</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.0494</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.2833</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.3744</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.3821</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.3783</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.3293</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.2683</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.2119</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.3102</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.3919</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.472</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.4894</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>5291300000</v>
+      </c>
+      <c r="C4">
         <v>6761001000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>5879300000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>5429900000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>4905700000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>5703199000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>5212600000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4650900000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>4332500000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>4753500000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>4084700000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>3450800000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>3084200000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>3881500000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>3831600000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>3256700000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2751100000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>3459199000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>3397200000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>2961600000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>2580100000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>3263900000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>2961100000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>2549900000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>2267900000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>2918100000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>2523000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>2169300000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>1892200000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>2508899000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>2320400000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>1892000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>1814400000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>1949700000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>1725500000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>1319800000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>1273600000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>1446600000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>1295400000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>1109200000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>1966500000</v>
+      </c>
+      <c r="C5">
         <v>2878499000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2908800000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2569100000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2147700000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2406100000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2072000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1796000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1600900000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1646899000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1305300000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1049200000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>936500000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1157400000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1074700000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>872000200</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>767899900</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1046101000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1038100000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>833099900</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>752599900</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>895199700</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>815299800</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>701400100</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>636300000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>823100600</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>708899900</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>598599900</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>524199800</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>663700700</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>630400100</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>506000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>488200100</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>522599700</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>421500000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>415200000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>397000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>413200100</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>397400000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>322399900</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>737000000</v>
+      </c>
+      <c r="C6">
         <v>832100100</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>740600000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>695100000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>665900000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>693100000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>655700000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>621500000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>585900000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>597700000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>527500000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>466800000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>455800000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>505500000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>480000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>444200000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>402800000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>456800000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>434900000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>400900000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>384200000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>416000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>374500000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>355200000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>325900000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>384900100</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>336800000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>309200000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>289400000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>323300000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>303800000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>283100000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>275800000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>278400000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>255700000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>218100000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>213200000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>217900100</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>198800000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>183100000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>1229500000</v>
+      </c>
+      <c r="C7">
         <v>2046401000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2168200000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1874000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1481800000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1713002000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1398200000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1174500000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1015000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1049200000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>777799800</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>582399900</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>480700000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>651899400</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>594699700</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>427800300</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>365099900</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>592099900</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>603200000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>432200000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>368399900</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>479200200</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>440799800</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>346200200</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>310400100</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>431000500</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>372099900</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>289399900</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>234799800</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>330601300</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>326600100</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>222899900</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>212400100</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>244199700</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>165800000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>197100000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>183800000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>195300400</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>198600000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>139299900</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM8">
         <v>0</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>1900000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>37700000</v>
+      </c>
+      <c r="C9">
         <v>19400000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>15100000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>9300000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>15500000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>13500000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>17400000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>5400000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>19300000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>6800000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>4600000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>38900000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>42600000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>8200000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>32000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>35000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>10600000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>15700000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>13000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>12600000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>22800000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>6400000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>3700000</v>
-      </c>
-      <c r="X9">
-        <v>7700000</v>
       </c>
       <c r="Y9">
         <v>7700000</v>
       </c>
       <c r="Z9">
+        <v>7700000</v>
+      </c>
+      <c r="AA9">
         <v>2100000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>6500000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>11100000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>6500000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>8200000</v>
-      </c>
-      <c r="AE9">
-        <v>7200000</v>
       </c>
       <c r="AF9">
         <v>7200000</v>
       </c>
       <c r="AG9">
+        <v>7200000</v>
+      </c>
+      <c r="AH9">
         <v>8300000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>6600000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>6000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>4800000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>5900000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>7400000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>6500000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>2800000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>1267200000</v>
+      </c>
+      <c r="C10">
         <v>2065800000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>2183300000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1883300000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1497300000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1726500000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1415600000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1179900000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1034300000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1056000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>782400000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>621300000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>523300000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>660100000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>626700000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>462800000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>375700000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>607800000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>616200000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>444800000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>391200000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>485599900</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>444500000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>353900000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>318100000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>433100000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>378600000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>300500000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>241300000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>338800000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>333800000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>230100000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>220700000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>250800000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>171800000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>201900000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>189700000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>202700000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>205100000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>142100000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>298900000</v>
+      </c>
+      <c r="C11">
         <v>417600000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>524000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>441000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>351500000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>380900000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>299100000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>246000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>239100000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>224900000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>149500000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>137300000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>90800000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>156200000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>153100000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>108400000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>89000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>138800000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>162500000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>94000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>202400000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>172300000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>155500000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>124700000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>111200000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>149400000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>128800000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>105400000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>83600000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>99900000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>112400000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>82200000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>78200000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>84600000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>58700000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>70900000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>66500000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>63300000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>59100000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>31100000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>968299900</v>
+      </c>
+      <c r="C12">
         <v>1648200000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1659300000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1442300000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1145800000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1345600000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1116500000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>933900000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>795200100</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>831100000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>632900000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>484000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>432500000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>503900100</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>473600000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>354400000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>286700000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>469000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>453700000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>350800000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>188800000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>313299900</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>289000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>229200000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>206900000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>283700000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>249800000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>195100000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>157700000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>238900000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>221400000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>147900000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>142500000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>166200000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>113100000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>131000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>123200000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>139400000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>146000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>111000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13">
         <v>100</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>0</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>0</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>0</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>0</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>0</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>0</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>9600000</v>
+      </c>
+      <c r="C14">
         <v>16400000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>11500000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>6000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>4200000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>6600000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>4400000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3400000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>2100000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>2200000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1300000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1200000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-1300000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-1200000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>3100000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-500000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>2800000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>-100000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>-200000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-500000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>958700000</v>
+      </c>
+      <c r="C15">
         <v>1631800000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1647800000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1436300000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1141600000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1339000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1115500000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>929500000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>791800000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>829000100</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>630700000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>482700000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>431300000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>505200000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>474800000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>351300000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>287200000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>466200100</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>453800000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>351000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>189300000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>313300000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>289000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>229200000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>206900000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>283700000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>249800000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>195100000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>157700000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>238900100</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>221400000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>147900000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>142500000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>166200000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>113100000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>131000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>123200000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>139400000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>146000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>111000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>4.7</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C16">
         <v>4.7</v>
       </c>
       <c r="D16">
+        <v>4.7</v>
+      </c>
+      <c r="E16">
         <v>4.07</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>3.21</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>3.74</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>3.1</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2.57</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2.17</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2.28</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1.73</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1.32</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1.17</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1.37</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1.28</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>0.9399999999999999</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>0.77</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1.24</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1.2</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>0.93</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>0.5</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>0.84</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>0.77</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>0.61</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>0.55</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>0.76</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>0.67</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>0.53</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>0.43</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>0.65</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>0.6</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>0.4</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>0.39</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>0.46</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>0.32</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>0.4</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>0.38</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>0.43</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>0.45</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>0.35</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>4.67</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C17">
         <v>4.67</v>
       </c>
       <c r="D17">
+        <v>4.67</v>
+      </c>
+      <c r="E17">
         <v>4.03</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>3.17</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>3.7</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3.06</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2.53</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2.14</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>2.24</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1.72</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1.3</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1.16</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1.35</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>1.26</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.93</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>0.76</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>1.22</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1.18</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>0.91</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>0.49</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.82</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.76</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>0.6</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>0.55</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>0.75</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>0.66</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>0.52</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>0.42</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>0.64</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>0.6</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>0.4</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>0.39</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>0.45</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>0.32</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>0.38</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>0.36</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>0.4</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>0.42</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>0.32</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>344200000</v>
+      </c>
+      <c r="C18">
         <v>351700000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>350800000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>353100000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>356100000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>361100000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>359700000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>362300000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>364400000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>365500000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>363800000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>365800000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>368300000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>372600000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>372300000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>373300000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>375100000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>376600000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>377400000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>376800000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>375800000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>374300000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>374800000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>374400000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>373300000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>371000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>371800000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>370200000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>369300000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>366300000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>366800000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>365800000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>364900000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>340500000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>349700000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>324300000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>323100000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>322100000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>322600000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>321700000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>346900000</v>
+      </c>
+      <c r="C19">
         <v>354800000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>353100000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>356300000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>360100000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>365800000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>364000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>367200000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>370000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>370200000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>367700000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>370100000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>373400000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>377400000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>376900000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>377700000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>380100000</v>
-      </c>
-      <c r="R19">
-        <v>383400000</v>
       </c>
       <c r="S19">
         <v>383400000</v>
       </c>
       <c r="T19">
+        <v>383400000</v>
+      </c>
+      <c r="U19">
         <v>383900000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>383800000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>378900000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>379400000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>378900000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>377400000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>375100000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>375900000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>373700000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>373500000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>369800000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>370300000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>369400000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>368100000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>366600000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>367800000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>366300000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>364400000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>364900000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>365600000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>365400000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>0.2709</v>
+      </c>
+      <c r="C20">
         <v>0.2986</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.331</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.3212</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.3045</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.2967</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.2844</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.2786</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.2698</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.2573</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.2422</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.2332</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.2329</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.2297</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.219</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.2112</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.2182</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.2322</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.2341</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.2195</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.2258</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.2152</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.2159</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.2157</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.2191</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.22</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.2193</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.2163</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.2169</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.2092</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.2136</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>0.211</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.212</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.2114</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.1963</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.2393</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.2376</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.2222</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.2348</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.2252</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.1694</v>
+      </c>
+      <c r="C21">
         <v>0.2123</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.2467</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.2343</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.2101</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.2112</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.1919</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.1822</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.1711</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.1639</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.1443</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.1294</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.1196</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.1294</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.1212</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.1036</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.1038</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.1314</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.136</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.1139</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.1105</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.1152</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.1167</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.1065</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.1069</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.1152</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.1151</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.1046</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.09719999999999999</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.1042</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.1107</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.093</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.0922</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.0988</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.0772</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.1136</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.11</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.105</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.1173</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.0973</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.1746</v>
+      </c>
+      <c r="C22">
         <v>0.2143</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.2484</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.2354</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.2123</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.2129</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.1943</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.183</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.1743</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.165</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.1452</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.1381</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.1302</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.131</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.1277</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.1121</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.1068</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.1349</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.1389</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.1172</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.1174</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.1168</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.1177</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.1088</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.1095</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.1158</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.1171</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.1086</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.0999</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.1068</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.1131</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.096</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.0958</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.1014</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.08</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.1164</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.1136</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.109</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.1212</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.0993</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>0.1321</v>
+      </c>
+      <c r="C23">
         <v>0.1693</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.1875</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.1796</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.1619</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.1651</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.1531</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.1442</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.1334</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.1295</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.117</v>
-      </c>
-      <c r="L23">
-        <v>0.1073</v>
       </c>
       <c r="M23">
         <v>0.1073</v>
       </c>
       <c r="N23">
+        <v>0.1073</v>
+      </c>
+      <c r="O23">
         <v>0.1003</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.0968</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.0851</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.08160000000000001</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.1035</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.1023</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.0925</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.0568</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.07530000000000001</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.0765</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>0.07049999999999999</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>0.0712</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.07580000000000001</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>0.07729999999999999</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>0.07049999999999999</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>0.0653</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.07530000000000001</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>0.075</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>0.0617</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0.0619</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.0672</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.0527</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.0755</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>0.0737</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>0.075</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>0.0862</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.0775</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>2067601000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>2189100000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1893900000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>1501200000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1731502000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1417700000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1195700000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1037900000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>1074600000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>798399800</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>604899900</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>502800000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>674299400</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>615999700</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>447500300</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>384599900</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>611499900</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>620600000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>450300000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>385799900</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>494600200</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>455199800</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>360400200</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>326100200</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>459100500</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>387199900</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>304799900</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>249799800</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>356301300</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>342300100</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>237399900</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>226000200</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>257999700</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>180300000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>216500000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>201900100</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>212000400</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>214300000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>154099900</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>1229500000</v>
+      </c>
+      <c r="C25">
         <v>2046401000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>2168200000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1874000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1481800000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1713001000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1398200000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1174500000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1015000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>1049200000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>777799800</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>582399900</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>480700000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>651900100</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>594699700</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>427800300</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>365099900</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>592100600</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>603200000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>432200000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>368399900</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>479200400</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>440799800</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>346200200</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>310400100</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>431001200</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>372099900</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>289399900</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>234799800</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>330600800</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>326600100</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>222899900</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>212400100</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>244199800</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>165800000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>197100000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>183800000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>195300200</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>198600000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>139299900</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>968299900</v>
+      </c>
+      <c r="C26">
         <v>1648200000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1659300000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1442300000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1145800000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1345600000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1116500000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>933900000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>795200100</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>831100000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>632900000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>484000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>432500000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>503900100</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>473600000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>354400000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>286700000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>469000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>453700000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>350800000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>188800000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>313299900</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>289000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>229200000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>206900000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>283700000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>249800000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>195100000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>157700000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>238900000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>221400000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>147900000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>142500000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>166200000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>113100000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>131000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>123200000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>139400000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>146000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>111000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>968300000</v>
+      </c>
+      <c r="C27">
         <v>1648200000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1659300000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1442300000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1145800000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>1345600000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1116500000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>933900000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>795200000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>831100000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>632900000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>484000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>432500000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>503900000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>473600000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>354400000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>286700000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>469000100</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>453700000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>350800000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>188800000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>313300000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>289000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>229200000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>206900000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>283700000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>249800000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>195100000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>157700000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>238900000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>221400000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>147900000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>142500000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>166200000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>113100000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>131000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>123200000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>139400000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>146000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>111000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>2.8132</v>
+      </c>
+      <c r="C28">
         <v>4.7308</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>4.73</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>4.0847</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>3.2176</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>3.7429</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>3.104</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2.5777</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>2.1822</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>2.2759</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>1.7397</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1.3231</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>1.1743</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1.3583</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>1.2721</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>0.9494</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>0.7643</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>1.2473</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>1.2022</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>0.931</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>0.5024</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>0.8367</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.7711</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>0.6122</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>0.5542</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>0.763</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>0.6719000000000001</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>0.527</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>0.427</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>0.651</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>0.6036</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>0.4043</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>0.3905</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>0.4581</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>0.3234</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>0.4039</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>0.3813</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>0.4324</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>0.4526</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>0.345</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>2.7913</v>
+      </c>
+      <c r="C29">
         <v>4.6876</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>4.6992</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>4.048</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>3.1819</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>3.6978</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>3.0673</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>2.5433</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>2.1492</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>2.243</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>1.7212</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>1.3078</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>1.1583</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>1.3397</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>1.2566</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>0.9383</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>0.7543</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>1.225</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>1.1834</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>0.9137999999999999</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>0.4919</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.8257</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.7617</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>0.6049</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>0.5482</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>0.754</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>0.6645</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>0.5221</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>0.4222</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>0.6446</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>0.5979</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>0.4004</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>0.3871</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>0.452</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>0.3075</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>0.3576</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>0.3381</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>0.3828</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>0.3993</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>0.3038</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>2.8132</v>
+      </c>
+      <c r="C30">
         <v>4.7308</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>4.73</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>4.0847</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>3.2176</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>3.7429</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>3.104</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>2.5777</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>2.1822</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>2.2759</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>1.7397</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>1.3231</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>1.1743</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>1.3583</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>1.2721</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0.9494</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>0.7643</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>1.2473</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>1.2022</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>0.931</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>0.5024</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.8367</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.7711</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0.6122</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>0.5542</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.763</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.6719000000000001</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>0.527</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>0.427</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>0.651</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>0.6036</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>0.4043</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>0.3905</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>0.4581</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>0.3234</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.4039</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>0.3813</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>0.4324</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>0.4526</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>0.345</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>2.7913</v>
+      </c>
+      <c r="C31">
         <v>4.6876</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>4.6992</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>4.048</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>3.1819</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>3.6978</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>3.0673</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>2.5433</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>2.1492</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>2.243</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>1.7212</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>1.3078</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>1.1583</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>1.3397</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>1.2566</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>0.9383</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>0.7543</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>1.225</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>1.1834</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>0.9137999999999999</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>0.4919</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.8257</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0.7617</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>0.6049</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>0.5482</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>0.754</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>0.6645</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>0.5221</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>0.4222</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>0.6446</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>0.5979</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>0.4004</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>0.3871</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>0.452</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>0.3075</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>0.3576</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>0.3381</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>0.3828</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>0.3993</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>0.3038</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>349700000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>353100000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>356300000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>360100000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>362100000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>364000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>367200000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>370000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>369500000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>367700000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>370100000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>373400000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>374800000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>376900000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>377700000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>380100000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>382700000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>383400000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>383900000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>383800000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>380000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>379400000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>378900000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>377400000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>377300000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>375900000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>373700000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>373500000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>371500000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>370300000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>369400000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>368100000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>367600000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>367800000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>366300000</v>
-      </c>
-      <c r="AK32">
-        <v>364400000</v>
       </c>
       <c r="AL32">
         <v>364400000</v>
       </c>
       <c r="AM32">
+        <v>364400000</v>
+      </c>
+      <c r="AN32">
         <v>365600000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>365400000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>0.2145</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.2491</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.2368</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.2128</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.2135</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.1946</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.1855</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.1749</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.1679</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.1481</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>0.1344</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.1251</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>0.1338</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.1256</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>0.1084</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>0.1093</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>0.1357</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>0.1399</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>0.1187</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.1158</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.1189</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.1205</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>0.1108</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>0.1123</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>0.1227</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>0.1198</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>0.1101</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>0.1034</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>0.1123</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>0.116</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>0.099</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>0.0982</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>0.1044</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>0.08400000000000001</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>0.1248</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>0.1209</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>0.114</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>0.1266</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>0.1076</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>0.1142</v>
+      </c>
+      <c r="C34">
         <v>0.1167</v>
       </c>
-      <c r="C34">
-        <v>0.031</v>
-      </c>
       <c r="D34">
+        <v>0.0309</v>
+      </c>
+      <c r="E34">
         <v>-0.08260000000000001</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>-0.0247</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.0702</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.0165</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.0151</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-0.0425</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.1301</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.1826</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>-0.0625</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>-0.0283</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.161</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.1106</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>-0.0215</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>-0.106</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>0.053</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0.0914</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>-0.0063</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>-0.0225</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.1505</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-0.0132</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>-0.0331</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>-0.0097</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0.1431</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>0.0191</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>0.0103</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>-0.0005999999999999999</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.1613</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>0.1211</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>-0.0166</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>-0.056</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>-0.0355</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>-0.1434</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>-0.1488</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>-0.0046</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>-0.05</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>-0.1749</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>-0.1284</v>
       </c>
     </row>
